--- a/biology/Zoologie/Conus_riosi/Conus_riosi.xlsx
+++ b/biology/Zoologie/Conus_riosi/Conus_riosi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus riosi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de la coquille atteint 40 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine d'escargot conique est présente au large de la Martinique.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus riosi a été décrite pour la première fois en 1986 par le malacologiste américain Edward James Petuch (d) dans « Proceedings of the Biological Society of Washington »[1],[2].
-Synonymes
-Conus daucus riosi Petuch, 1986 · non accepté
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus riosi a été décrite pour la première fois en 1986 par le malacologiste américain Edward James Petuch (d) dans « Proceedings of the Biological Society of Washington »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_riosi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_riosi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus daucus riosi Petuch, 1986 · non accepté
 Conus jacquescolombi (Monnier &amp; Limpalaër, 2016) · non accepté
 Dauciconus daucus riosi (Petuch, 1986) · non accepté
 Dauciconus jacquescolombi Monnier &amp; Limpalaër, 2016 · non accepté
